--- a/inputs/data_raw/Data_MEPERS_Decrements_AV2020.xlsx
+++ b/inputs/data_raw/Data_MEPERS_Decrements_AV2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_PewRiskSharing\model_MEPERS\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9875571B-4D0E-43A2-96E4-83C8AD5C605C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9FFB81-730B-468D-99A9-2BA092045711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="43" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>TOC</t>
   </si>
@@ -119,17 +119,6 @@
         <family val="2"/>
       </rPr>
       <t>Increase</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Annual Rate per 100 Members, Rates as of 2020</t>
     </r>
   </si>
   <si>
@@ -1652,12 +1641,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1681,20 +1670,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1787,7 +1776,7 @@
     </row>
     <row r="19" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1808,25 +1797,25 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1927,17 +1916,17 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D17" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1958,12 +1947,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2075,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3816633E-6322-417C-AE1E-F43C2AF11311}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2105,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="19"/>
     </row>
@@ -2119,7 +2108,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
@@ -2135,7 +2124,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,7 +2457,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,10 +2500,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>74</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2634,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2642,10 +2631,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,10 +2655,10 @@
         <v>0.3</v>
       </c>
       <c r="I8" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="60" t="s">
         <v>65</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>66</v>
       </c>
       <c r="K8" s="60"/>
     </row>
@@ -2701,7 +2690,7 @@
         <v>0.3</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="34">
         <v>300</v>
@@ -2739,7 +2728,7 @@
         <v>0.4</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="34">
         <v>300</v>
@@ -2777,7 +2766,7 @@
         <v>0.3</v>
       </c>
       <c r="I14" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="34">
         <v>300</v>
@@ -2796,7 +2785,7 @@
         <v>0.3</v>
       </c>
       <c r="I15" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="36">
         <v>1000</v>
@@ -2922,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AE2EB2-CA42-4FE6-8F24-6446CEAEA505}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2951,7 +2940,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,7 +2961,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3103,7 +3092,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,7 +3107,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3126,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3145,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3314,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177A1718-E890-4F9C-86E9-BB55E3E37C95}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="J15" sqref="J15:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3329,20 +3318,20 @@
     <col min="8" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3350,7 +3339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3358,13 +3347,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>13</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
@@ -3372,22 +3359,22 @@
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="70"/>
       <c r="F6" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C7" s="46" t="s">
         <v>9</v>
       </c>
@@ -3410,30 +3397,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C8" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="F8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>18</v>
-      </c>
       <c r="I8" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="51">
         <v>20</v>
       </c>
@@ -3448,7 +3435,7 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="51">
         <v>25</v>
       </c>
@@ -3467,7 +3454,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="51">
         <v>30</v>
       </c>
@@ -3486,7 +3473,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="51">
         <v>35</v>
       </c>
@@ -3505,7 +3492,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="51">
         <v>40</v>
       </c>
@@ -3524,7 +3511,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="51">
         <v>45</v>
       </c>
@@ -3543,7 +3530,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="51">
         <v>50</v>
       </c>
@@ -3565,8 +3552,16 @@
       <c r="I15" s="54">
         <v>1.17E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>H15/F15</f>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="K15">
+        <f>I15/G15</f>
+        <v>3.774193548387097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="51">
         <v>55</v>
       </c>
@@ -3588,8 +3583,16 @@
       <c r="I16" s="54">
         <v>1.47E-2</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" ref="J16:J19" si="0">H16/F16</f>
+        <v>4.2105263157894735</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K19" si="1">I16/G16</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="51">
         <v>60</v>
       </c>
@@ -3611,8 +3614,16 @@
       <c r="I17" s="54">
         <v>1.7500000000000002E-2</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>3.5454545454545454</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>2.8688524590163937</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="51">
         <v>65</v>
       </c>
@@ -3634,8 +3645,16 @@
       <c r="I18" s="55">
         <v>2.12E-2</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2.9908256880733943</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2.2553191489361701</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="51">
         <v>70</v>
       </c>
@@ -3653,8 +3672,16 @@
       <c r="I19" s="55">
         <v>2.8899999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>2.4970414201183435</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.9266666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="51">
         <v>75</v>
       </c>
@@ -3669,7 +3696,7 @@
       <c r="H20" s="55"/>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="51">
         <v>80</v>
       </c>
@@ -3684,7 +3711,7 @@
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="51">
         <v>85</v>
       </c>
@@ -3699,7 +3726,7 @@
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="51">
         <v>90</v>
       </c>
@@ -3714,7 +3741,7 @@
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="51">
         <v>95</v>
       </c>
@@ -3747,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D933BCA-4687-4E4C-BE87-A1256666CA3D}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58:H67"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3758,25 +3785,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>39</v>
       </c>
       <c r="E7" s="72"/>
     </row>
@@ -3972,50 +3999,50 @@
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="73" t="s">
         <v>38</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>39</v>
       </c>
       <c r="E30" s="73"/>
     </row>
@@ -4211,70 +4238,70 @@
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D43" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="73" t="s">
         <v>38</v>
-      </c>
-      <c r="D57" s="73" t="s">
-        <v>39</v>
       </c>
       <c r="E57" s="73"/>
     </row>
@@ -4494,29 +4521,29 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G5" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>66</v>
       </c>
       <c r="E6" s="60"/>
       <c r="G6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4550,7 +4577,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="34">
         <v>300</v>
@@ -4608,7 +4635,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="34">
         <v>300</v>
@@ -4666,7 +4693,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="34">
         <v>300</v>
@@ -4695,7 +4722,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="36">
         <v>1000</v>
